--- a/web接口文档(9).xlsx
+++ b/web接口文档(9).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C087B77C-F0B6-4885-A487-4561E3D3E636}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{552E1EA6-ECC7-422B-BAF5-D0ADA1927D1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艺票通服务器地址：http://39.104.111.170/yptcms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分页：PageParam param，标题：String title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -583,6 +579,10 @@
   </si>
   <si>
     <t>演出项目/猜你喜欢/热门推荐：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺票通服务器地址：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,12 +693,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="93" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1055,12 +1055,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1076,15 +1076,15 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1093,13 +1093,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1108,15 +1108,15 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -1125,76 +1125,76 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1211,59 +1211,59 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1272,32 +1272,32 @@
         <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1306,13 +1306,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1321,7 +1321,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -1338,27 +1338,27 @@
         <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>105</v>
+      <c r="A20" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
@@ -1367,37 +1367,37 @@
         <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -1406,229 +1406,229 @@
         <v>37</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>76</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
       <c r="E28" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
         <v>97</v>
       </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>109</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>110</v>
-      </c>
-      <c r="E33" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
         <v>112</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>113</v>
       </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>119</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="C36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" t="s">
-        <v>122</v>
-      </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
         <v>131</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>132</v>
-      </c>
-      <c r="C37" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,10 +1639,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1650,45 +1650,45 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
